--- a/_xls/X-u5-i10_semindices.xlsx-avaliacoes_df-mp_loss_indv2.xlsx
+++ b/_xls/X-u5-i10_semindices.xlsx-avaliacoes_df-mp_loss_indv2.xlsx
@@ -486,13 +486,13 @@
         <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I2" t="n">
         <v>2</v>
       </c>
       <c r="J2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -508,18 +508,18 @@
       <c r="D3" t="n">
         <v>3</v>
       </c>
-      <c r="E3" t="inlineStr"/>
+      <c r="E3" t="n">
+        <v>1</v>
+      </c>
       <c r="F3" t="n">
         <v>4</v>
       </c>
-      <c r="G3" t="n">
-        <v>2</v>
-      </c>
+      <c r="G3" t="inlineStr"/>
       <c r="H3" t="n">
         <v>2</v>
       </c>
       <c r="I3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J3" t="n">
         <v>3</v>
@@ -543,21 +543,23 @@
       <c r="G4" t="n">
         <v>1</v>
       </c>
-      <c r="H4" t="inlineStr"/>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
       <c r="I4" t="n">
         <v>2</v>
       </c>
-      <c r="J4" t="n">
-        <v>1</v>
-      </c>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr"/>
+      <c r="A5" t="n">
+        <v>2</v>
+      </c>
       <c r="B5" t="n">
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D5" t="n">
         <v>1</v>
@@ -570,9 +572,7 @@
       <c r="H5" t="n">
         <v>5</v>
       </c>
-      <c r="I5" t="n">
-        <v>1</v>
-      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="n">
         <v>3</v>
       </c>
@@ -581,7 +581,9 @@
       <c r="A6" t="n">
         <v>2</v>
       </c>
-      <c r="B6" t="inlineStr"/>
+      <c r="B6" t="n">
+        <v>2</v>
+      </c>
       <c r="C6" t="n">
         <v>4</v>
       </c>
@@ -589,19 +591,17 @@
       <c r="E6" t="n">
         <v>4</v>
       </c>
-      <c r="F6" t="inlineStr"/>
+      <c r="F6" t="n">
+        <v>1</v>
+      </c>
       <c r="G6" t="n">
         <v>4</v>
       </c>
-      <c r="H6" t="n">
-        <v>1</v>
-      </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="n">
         <v>5</v>
       </c>
-      <c r="J6" t="n">
-        <v>2</v>
-      </c>
+      <c r="J6" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
